--- a/Elemental Fox.xlsx
+++ b/Elemental Fox.xlsx
@@ -23,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t xml:space="preserve">2.1.3</t>
   </si>
@@ -75,6 +78,9 @@
   <si>
     <t xml:space="preserve">Retractable spike</t>
   </si>
+  <si>
+    <t xml:space="preserve">Reverse retractable spike</t>
+  </si>
 </sst>
 </file>
 
@@ -122,6 +128,13 @@
     </font>
     <font>
       <sz val="15"/>
+      <color rgb="FFEA7500"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -130,13 +143,6 @@
     <font>
       <sz val="15"/>
       <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFEA7500"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
@@ -222,8 +228,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFD62E4E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE16173"/>
+        <bgColor rgb="FFBF819E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFD428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF355269"/>
       </patternFill>
     </fill>
     <fill>
@@ -234,32 +264,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF10D0C"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF355269"/>
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor rgb="FF3465A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFFD428"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3465A4"/>
-        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
@@ -271,7 +283,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFE16173"/>
       </patternFill>
     </fill>
     <fill>
@@ -283,13 +295,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA7500"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFB85C00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -314,12 +326,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4B2204"/>
         <bgColor rgb="FF492300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFD62E4E"/>
       </patternFill>
     </fill>
     <fill>
@@ -409,10 +415,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,11 +423,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,14 +439,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -457,7 +447,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,7 +455,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,15 +483,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,6 +500,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,15 +523,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +547,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,7 +582,7 @@
       <rgbColor rgb="FF395511"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFB85C00"/>
-      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF5EB91E"/>
@@ -585,7 +591,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF7B3D00"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFE16173"/>
       <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -608,7 +614,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FFEA7500"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FFBF819E"/>
@@ -802,10 +808,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:IL56"/>
+  <dimension ref="A3:IL57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L44" activeCellId="0" sqref="L44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FC13" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="IL26" activeCellId="0" sqref="IL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.78515625" defaultRowHeight="43.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1227,6 +1233,7 @@
       <c r="CC8" s="2"/>
       <c r="CW8" s="3"/>
       <c r="CX8" s="3"/>
+      <c r="GG8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -1488,6 +1495,9 @@
       <c r="CX11" s="3"/>
       <c r="DC11" s="4"/>
       <c r="DD11" s="4"/>
+      <c r="HX11" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -1662,6 +1672,7 @@
       <c r="CX13" s="3"/>
       <c r="DC13" s="4"/>
       <c r="DD13" s="4"/>
+      <c r="GV13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -2233,6 +2244,32 @@
       <c r="GY19" s="4"/>
       <c r="GZ19" s="4"/>
       <c r="HA19" s="4"/>
+      <c r="HB19" s="4"/>
+      <c r="HC19" s="4"/>
+      <c r="HD19" s="4"/>
+      <c r="HE19" s="4"/>
+      <c r="HF19" s="4"/>
+      <c r="HG19" s="4"/>
+      <c r="HH19" s="4"/>
+      <c r="HI19" s="4"/>
+      <c r="HJ19" s="4"/>
+      <c r="HK19" s="4"/>
+      <c r="HL19" s="4"/>
+      <c r="HM19" s="4"/>
+      <c r="HN19" s="4"/>
+      <c r="HO19" s="4"/>
+      <c r="HP19" s="4"/>
+      <c r="HQ19" s="4"/>
+      <c r="HR19" s="4"/>
+      <c r="HS19" s="4"/>
+      <c r="HT19" s="4"/>
+      <c r="HU19" s="4"/>
+      <c r="HV19" s="4"/>
+      <c r="HW19" s="4"/>
+      <c r="HX19" s="4"/>
+      <c r="HY19" s="4"/>
+      <c r="HZ19" s="4"/>
+      <c r="IA19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -2362,6 +2399,32 @@
       <c r="GY20" s="4"/>
       <c r="GZ20" s="4"/>
       <c r="HA20" s="4"/>
+      <c r="HB20" s="4"/>
+      <c r="HC20" s="4"/>
+      <c r="HD20" s="4"/>
+      <c r="HE20" s="4"/>
+      <c r="HF20" s="4"/>
+      <c r="HG20" s="4"/>
+      <c r="HH20" s="4"/>
+      <c r="HI20" s="4"/>
+      <c r="HJ20" s="4"/>
+      <c r="HK20" s="4"/>
+      <c r="HL20" s="4"/>
+      <c r="HM20" s="4"/>
+      <c r="HN20" s="4"/>
+      <c r="HO20" s="4"/>
+      <c r="HP20" s="4"/>
+      <c r="HQ20" s="4"/>
+      <c r="HR20" s="4"/>
+      <c r="HS20" s="4"/>
+      <c r="HT20" s="4"/>
+      <c r="HU20" s="4"/>
+      <c r="HV20" s="4"/>
+      <c r="HW20" s="4"/>
+      <c r="HX20" s="4"/>
+      <c r="HY20" s="4"/>
+      <c r="HZ20" s="4"/>
+      <c r="IA20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -2473,24 +2536,50 @@
       <c r="GG21" s="4"/>
       <c r="GH21" s="4"/>
       <c r="GI21" s="4"/>
-      <c r="GJ21" s="4"/>
-      <c r="GK21" s="4"/>
-      <c r="GL21" s="4"/>
-      <c r="GM21" s="4"/>
-      <c r="GN21" s="4"/>
-      <c r="GO21" s="4"/>
-      <c r="GP21" s="4"/>
-      <c r="GQ21" s="4"/>
-      <c r="GR21" s="4"/>
-      <c r="GS21" s="4"/>
-      <c r="GT21" s="4"/>
-      <c r="GU21" s="4"/>
-      <c r="GV21" s="4"/>
-      <c r="GW21" s="4"/>
-      <c r="GX21" s="4"/>
-      <c r="GY21" s="4"/>
-      <c r="GZ21" s="4"/>
-      <c r="HA21" s="4"/>
+      <c r="GJ21" s="2"/>
+      <c r="GK21" s="2"/>
+      <c r="GL21" s="2"/>
+      <c r="GM21" s="2"/>
+      <c r="GN21" s="2"/>
+      <c r="GO21" s="2"/>
+      <c r="GP21" s="2"/>
+      <c r="GQ21" s="2"/>
+      <c r="GR21" s="8"/>
+      <c r="GS21" s="8"/>
+      <c r="GT21" s="2"/>
+      <c r="GU21" s="2"/>
+      <c r="GV21" s="2"/>
+      <c r="GW21" s="2"/>
+      <c r="GX21" s="8"/>
+      <c r="GY21" s="8"/>
+      <c r="GZ21" s="2"/>
+      <c r="HA21" s="2"/>
+      <c r="HB21" s="2"/>
+      <c r="HC21" s="2"/>
+      <c r="HD21" s="9"/>
+      <c r="HE21" s="9"/>
+      <c r="HF21" s="2"/>
+      <c r="HG21" s="2"/>
+      <c r="HH21" s="2"/>
+      <c r="HI21" s="2"/>
+      <c r="HJ21" s="2"/>
+      <c r="HK21" s="2"/>
+      <c r="HL21" s="4"/>
+      <c r="HM21" s="4"/>
+      <c r="HN21" s="4"/>
+      <c r="HO21" s="4"/>
+      <c r="HP21" s="4"/>
+      <c r="HQ21" s="4"/>
+      <c r="HR21" s="4"/>
+      <c r="HS21" s="4"/>
+      <c r="HT21" s="4"/>
+      <c r="HU21" s="4"/>
+      <c r="HV21" s="4"/>
+      <c r="HW21" s="4"/>
+      <c r="HX21" s="4"/>
+      <c r="HY21" s="4"/>
+      <c r="HZ21" s="4"/>
+      <c r="IA21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -2503,12 +2592,12 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -2551,8 +2640,8 @@
       <c r="DD22" s="4"/>
       <c r="DE22" s="7"/>
       <c r="DF22" s="7"/>
-      <c r="DZ22" s="9"/>
-      <c r="EA22" s="9"/>
+      <c r="DZ22" s="11"/>
+      <c r="EA22" s="11"/>
       <c r="EW22" s="2"/>
       <c r="EX22" s="2"/>
       <c r="FI22" s="2"/>
@@ -2572,24 +2661,50 @@
       <c r="GG22" s="4"/>
       <c r="GH22" s="4"/>
       <c r="GI22" s="4"/>
-      <c r="GJ22" s="4"/>
-      <c r="GK22" s="4"/>
-      <c r="GL22" s="4"/>
-      <c r="GM22" s="4"/>
-      <c r="GN22" s="4"/>
-      <c r="GO22" s="4"/>
-      <c r="GP22" s="4"/>
-      <c r="GQ22" s="4"/>
-      <c r="GR22" s="4"/>
-      <c r="GS22" s="4"/>
-      <c r="GT22" s="4"/>
-      <c r="GU22" s="4"/>
-      <c r="GV22" s="4"/>
-      <c r="GW22" s="4"/>
-      <c r="GX22" s="4"/>
-      <c r="GY22" s="4"/>
-      <c r="GZ22" s="4"/>
-      <c r="HA22" s="4"/>
+      <c r="GJ22" s="2"/>
+      <c r="GK22" s="2"/>
+      <c r="GL22" s="2"/>
+      <c r="GM22" s="2"/>
+      <c r="GN22" s="2"/>
+      <c r="GO22" s="2"/>
+      <c r="GP22" s="2"/>
+      <c r="GQ22" s="2"/>
+      <c r="GR22" s="8"/>
+      <c r="GS22" s="8"/>
+      <c r="GT22" s="2"/>
+      <c r="GU22" s="2"/>
+      <c r="GV22" s="2"/>
+      <c r="GW22" s="2"/>
+      <c r="GX22" s="8"/>
+      <c r="GY22" s="8"/>
+      <c r="GZ22" s="2"/>
+      <c r="HA22" s="2"/>
+      <c r="HB22" s="2"/>
+      <c r="HC22" s="2"/>
+      <c r="HD22" s="9"/>
+      <c r="HE22" s="9"/>
+      <c r="HF22" s="2"/>
+      <c r="HG22" s="2"/>
+      <c r="HH22" s="2"/>
+      <c r="HI22" s="2"/>
+      <c r="HJ22" s="2"/>
+      <c r="HK22" s="2"/>
+      <c r="HL22" s="4"/>
+      <c r="HM22" s="4"/>
+      <c r="HN22" s="4"/>
+      <c r="HO22" s="4"/>
+      <c r="HP22" s="4"/>
+      <c r="HQ22" s="4"/>
+      <c r="HR22" s="4"/>
+      <c r="HS22" s="4"/>
+      <c r="HT22" s="4"/>
+      <c r="HU22" s="4"/>
+      <c r="HV22" s="4"/>
+      <c r="HW22" s="4"/>
+      <c r="HX22" s="4"/>
+      <c r="HY22" s="4"/>
+      <c r="HZ22" s="4"/>
+      <c r="IA22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="2"/>
@@ -2648,8 +2763,8 @@
       <c r="DD23" s="4"/>
       <c r="DE23" s="7"/>
       <c r="DF23" s="7"/>
-      <c r="DZ23" s="9"/>
-      <c r="EA23" s="9"/>
+      <c r="DZ23" s="11"/>
+      <c r="EA23" s="11"/>
       <c r="EW23" s="2"/>
       <c r="EX23" s="2"/>
       <c r="FT23" s="4"/>
@@ -2660,20 +2775,22 @@
       <c r="FY23" s="4"/>
       <c r="FZ23" s="4"/>
       <c r="GA23" s="4"/>
-      <c r="GB23" s="4"/>
-      <c r="GC23" s="4"/>
-      <c r="GD23" s="4"/>
-      <c r="GE23" s="4"/>
-      <c r="GF23" s="4"/>
-      <c r="GG23" s="4"/>
-      <c r="GH23" s="4"/>
-      <c r="GI23" s="4"/>
-      <c r="GJ23" s="4"/>
-      <c r="GK23" s="4"/>
-      <c r="GL23" s="4"/>
-      <c r="GM23" s="4"/>
-      <c r="GN23" s="4"/>
-      <c r="GO23" s="4"/>
+      <c r="GB23" s="2"/>
+      <c r="GC23" s="2"/>
+      <c r="GD23" s="2"/>
+      <c r="GE23" s="2"/>
+      <c r="GF23" s="2"/>
+      <c r="GG23" s="2"/>
+      <c r="GH23" s="12"/>
+      <c r="GI23" s="12"/>
+      <c r="GJ23" s="2"/>
+      <c r="GK23" s="2"/>
+      <c r="GL23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM23" s="13"/>
+      <c r="GN23" s="2"/>
+      <c r="GO23" s="2"/>
       <c r="GP23" s="4"/>
       <c r="GQ23" s="4"/>
       <c r="GR23" s="4"/>
@@ -2686,6 +2803,32 @@
       <c r="GY23" s="4"/>
       <c r="GZ23" s="4"/>
       <c r="HA23" s="4"/>
+      <c r="HB23" s="4"/>
+      <c r="HC23" s="4"/>
+      <c r="HD23" s="2"/>
+      <c r="HE23" s="2"/>
+      <c r="HF23" s="2"/>
+      <c r="HG23" s="2"/>
+      <c r="HH23" s="2"/>
+      <c r="HI23" s="2"/>
+      <c r="HJ23" s="8"/>
+      <c r="HK23" s="8"/>
+      <c r="HL23" s="9"/>
+      <c r="HM23" s="9"/>
+      <c r="HN23" s="4"/>
+      <c r="HO23" s="4"/>
+      <c r="HP23" s="4"/>
+      <c r="HQ23" s="4"/>
+      <c r="HR23" s="4"/>
+      <c r="HS23" s="4"/>
+      <c r="HT23" s="4"/>
+      <c r="HU23" s="4"/>
+      <c r="HV23" s="4"/>
+      <c r="HW23" s="4"/>
+      <c r="HX23" s="4"/>
+      <c r="HY23" s="4"/>
+      <c r="HZ23" s="4"/>
+      <c r="IA23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="2"/>
@@ -2761,8 +2904,8 @@
       <c r="DW24" s="2"/>
       <c r="DX24" s="2"/>
       <c r="DY24" s="2"/>
-      <c r="DZ24" s="9"/>
-      <c r="EA24" s="9"/>
+      <c r="DZ24" s="11"/>
+      <c r="EA24" s="11"/>
       <c r="EB24" s="2"/>
       <c r="EC24" s="2"/>
       <c r="ED24" s="2"/>
@@ -2780,20 +2923,20 @@
       <c r="FY24" s="4"/>
       <c r="FZ24" s="4"/>
       <c r="GA24" s="4"/>
-      <c r="GB24" s="4"/>
-      <c r="GC24" s="4"/>
-      <c r="GD24" s="4"/>
-      <c r="GE24" s="4"/>
-      <c r="GF24" s="4"/>
-      <c r="GG24" s="4"/>
-      <c r="GH24" s="4"/>
-      <c r="GI24" s="4"/>
-      <c r="GJ24" s="4"/>
-      <c r="GK24" s="4"/>
-      <c r="GL24" s="4"/>
-      <c r="GM24" s="4"/>
-      <c r="GN24" s="4"/>
-      <c r="GO24" s="4"/>
+      <c r="GB24" s="2"/>
+      <c r="GC24" s="2"/>
+      <c r="GD24" s="2"/>
+      <c r="GE24" s="2"/>
+      <c r="GF24" s="2"/>
+      <c r="GG24" s="2"/>
+      <c r="GH24" s="12"/>
+      <c r="GI24" s="12"/>
+      <c r="GJ24" s="2"/>
+      <c r="GK24" s="2"/>
+      <c r="GL24" s="13"/>
+      <c r="GM24" s="13"/>
+      <c r="GN24" s="2"/>
+      <c r="GO24" s="2"/>
       <c r="GP24" s="4"/>
       <c r="GQ24" s="4"/>
       <c r="GR24" s="4"/>
@@ -2806,6 +2949,32 @@
       <c r="GY24" s="4"/>
       <c r="GZ24" s="4"/>
       <c r="HA24" s="4"/>
+      <c r="HB24" s="4"/>
+      <c r="HC24" s="4"/>
+      <c r="HD24" s="2"/>
+      <c r="HE24" s="2"/>
+      <c r="HF24" s="2"/>
+      <c r="HG24" s="2"/>
+      <c r="HH24" s="2"/>
+      <c r="HI24" s="2"/>
+      <c r="HJ24" s="8"/>
+      <c r="HK24" s="8"/>
+      <c r="HL24" s="9"/>
+      <c r="HM24" s="9"/>
+      <c r="HN24" s="4"/>
+      <c r="HO24" s="4"/>
+      <c r="HP24" s="4"/>
+      <c r="HQ24" s="4"/>
+      <c r="HR24" s="4"/>
+      <c r="HS24" s="4"/>
+      <c r="HT24" s="4"/>
+      <c r="HU24" s="4"/>
+      <c r="HV24" s="4"/>
+      <c r="HW24" s="4"/>
+      <c r="HX24" s="4"/>
+      <c r="HY24" s="4"/>
+      <c r="HZ24" s="4"/>
+      <c r="IA24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="2"/>
@@ -2878,44 +3047,82 @@
       <c r="DT25" s="2"/>
       <c r="DU25" s="2"/>
       <c r="DV25" s="2"/>
-      <c r="DW25" s="10"/>
-      <c r="DX25" s="10"/>
+      <c r="DW25" s="14"/>
+      <c r="DX25" s="14"/>
       <c r="DY25" s="2"/>
-      <c r="DZ25" s="9"/>
-      <c r="EA25" s="9"/>
+      <c r="DZ25" s="11"/>
+      <c r="EA25" s="11"/>
       <c r="EB25" s="2"/>
-      <c r="EC25" s="10"/>
-      <c r="ED25" s="10"/>
+      <c r="EC25" s="14"/>
+      <c r="ED25" s="14"/>
       <c r="EE25" s="2"/>
       <c r="EF25" s="2"/>
       <c r="EG25" s="2"/>
       <c r="EH25" s="2"/>
       <c r="EW25" s="2"/>
       <c r="EX25" s="2"/>
-      <c r="FX25" s="11" t="n">
-        <v>3.4</v>
+      <c r="FT25" s="4"/>
+      <c r="FU25" s="4"/>
+      <c r="FV25" s="4"/>
+      <c r="FW25" s="4"/>
+      <c r="FX25" s="4"/>
+      <c r="FY25" s="4"/>
+      <c r="FZ25" s="4"/>
+      <c r="GA25" s="4"/>
+      <c r="GB25" s="4"/>
+      <c r="GC25" s="4"/>
+      <c r="GD25" s="4"/>
+      <c r="GE25" s="4"/>
+      <c r="GF25" s="4"/>
+      <c r="GG25" s="4"/>
+      <c r="GH25" s="4"/>
+      <c r="GI25" s="4"/>
+      <c r="GJ25" s="2"/>
+      <c r="GK25" s="2"/>
+      <c r="GL25" s="13"/>
+      <c r="GM25" s="13"/>
+      <c r="GN25" s="2"/>
+      <c r="GO25" s="2"/>
+      <c r="GP25" s="8"/>
+      <c r="GQ25" s="8"/>
+      <c r="GR25" s="2"/>
+      <c r="GS25" s="2"/>
+      <c r="GT25" s="2"/>
+      <c r="GU25" s="2"/>
+      <c r="GV25" s="9" t="n">
+        <v>3.5</v>
       </c>
-      <c r="FY25" s="12"/>
-      <c r="GB25" s="13"/>
-      <c r="GC25" s="13"/>
-      <c r="GF25" s="13"/>
-      <c r="GG25" s="13"/>
-      <c r="GJ25" s="13"/>
-      <c r="GK25" s="13"/>
-      <c r="GP25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="GQ25" s="14"/>
-      <c r="GR25" s="4"/>
-      <c r="GS25" s="4"/>
-      <c r="GT25" s="4"/>
-      <c r="GU25" s="4"/>
-      <c r="GV25" s="4"/>
-      <c r="GW25" s="4"/>
+      <c r="GW25" s="9"/>
       <c r="GX25" s="4"/>
       <c r="GY25" s="4"/>
       <c r="GZ25" s="4"/>
       <c r="HA25" s="4"/>
+      <c r="HB25" s="4"/>
+      <c r="HC25" s="4"/>
+      <c r="HD25" s="15"/>
+      <c r="HE25" s="15"/>
+      <c r="HF25" s="4"/>
+      <c r="HG25" s="4"/>
+      <c r="HH25" s="15"/>
+      <c r="HI25" s="15"/>
+      <c r="HJ25" s="4"/>
+      <c r="HK25" s="4"/>
+      <c r="HL25" s="2"/>
+      <c r="HM25" s="2"/>
+      <c r="HN25" s="2"/>
+      <c r="HO25" s="2"/>
+      <c r="HP25" s="2"/>
+      <c r="HQ25" s="2"/>
+      <c r="HR25" s="2"/>
+      <c r="HS25" s="2"/>
+      <c r="HT25" s="4"/>
+      <c r="HU25" s="4"/>
+      <c r="HV25" s="4"/>
+      <c r="HW25" s="4"/>
+      <c r="HX25" s="4"/>
+      <c r="HY25" s="4"/>
+      <c r="HZ25" s="4"/>
+      <c r="IA25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="2"/>
@@ -2986,40 +3193,80 @@
       <c r="DT26" s="2"/>
       <c r="DU26" s="2"/>
       <c r="DV26" s="2"/>
-      <c r="DW26" s="10"/>
-      <c r="DX26" s="10"/>
+      <c r="DW26" s="14"/>
+      <c r="DX26" s="14"/>
       <c r="DY26" s="2"/>
-      <c r="DZ26" s="9"/>
-      <c r="EA26" s="9"/>
+      <c r="DZ26" s="11"/>
+      <c r="EA26" s="11"/>
       <c r="EB26" s="2"/>
-      <c r="EC26" s="10"/>
-      <c r="ED26" s="10"/>
+      <c r="EC26" s="14"/>
+      <c r="ED26" s="14"/>
       <c r="EE26" s="2"/>
       <c r="EF26" s="2"/>
       <c r="EG26" s="2"/>
       <c r="EH26" s="2"/>
       <c r="EW26" s="2"/>
       <c r="EX26" s="2"/>
-      <c r="FX26" s="12"/>
-      <c r="FY26" s="12"/>
-      <c r="GB26" s="13"/>
-      <c r="GC26" s="13"/>
-      <c r="GF26" s="13"/>
-      <c r="GG26" s="13"/>
-      <c r="GJ26" s="13"/>
-      <c r="GK26" s="13"/>
-      <c r="GP26" s="14"/>
-      <c r="GQ26" s="14"/>
-      <c r="GR26" s="4"/>
-      <c r="GS26" s="4"/>
-      <c r="GT26" s="4"/>
-      <c r="GU26" s="4"/>
-      <c r="GV26" s="4"/>
-      <c r="GW26" s="4"/>
+      <c r="FT26" s="4"/>
+      <c r="FU26" s="4"/>
+      <c r="FV26" s="4"/>
+      <c r="FW26" s="4"/>
+      <c r="FX26" s="4"/>
+      <c r="FY26" s="4"/>
+      <c r="FZ26" s="4"/>
+      <c r="GA26" s="4"/>
+      <c r="GB26" s="4"/>
+      <c r="GC26" s="4"/>
+      <c r="GD26" s="4"/>
+      <c r="GE26" s="4"/>
+      <c r="GF26" s="4"/>
+      <c r="GG26" s="4"/>
+      <c r="GH26" s="4"/>
+      <c r="GI26" s="4"/>
+      <c r="GJ26" s="2"/>
+      <c r="GK26" s="2"/>
+      <c r="GL26" s="13"/>
+      <c r="GM26" s="13"/>
+      <c r="GN26" s="2"/>
+      <c r="GO26" s="2"/>
+      <c r="GP26" s="8"/>
+      <c r="GQ26" s="8"/>
+      <c r="GR26" s="2"/>
+      <c r="GS26" s="2"/>
+      <c r="GT26" s="2"/>
+      <c r="GU26" s="2"/>
+      <c r="GV26" s="9"/>
+      <c r="GW26" s="9"/>
       <c r="GX26" s="4"/>
       <c r="GY26" s="4"/>
       <c r="GZ26" s="4"/>
       <c r="HA26" s="4"/>
+      <c r="HB26" s="4"/>
+      <c r="HC26" s="4"/>
+      <c r="HD26" s="4"/>
+      <c r="HE26" s="4"/>
+      <c r="HF26" s="4"/>
+      <c r="HG26" s="4"/>
+      <c r="HH26" s="4"/>
+      <c r="HI26" s="4"/>
+      <c r="HJ26" s="4"/>
+      <c r="HK26" s="4"/>
+      <c r="HL26" s="2"/>
+      <c r="HM26" s="2"/>
+      <c r="HN26" s="2"/>
+      <c r="HO26" s="2"/>
+      <c r="HP26" s="2"/>
+      <c r="HQ26" s="2"/>
+      <c r="HR26" s="2"/>
+      <c r="HS26" s="2"/>
+      <c r="HT26" s="4"/>
+      <c r="HU26" s="4"/>
+      <c r="HV26" s="4"/>
+      <c r="HW26" s="4"/>
+      <c r="HX26" s="4"/>
+      <c r="HY26" s="4"/>
+      <c r="HZ26" s="4"/>
+      <c r="IA26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="2"/>
@@ -3048,19 +3295,19 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
-      <c r="AO27" s="16"/>
+      <c r="AO27" s="17"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
@@ -3085,41 +3332,83 @@
       <c r="DO27" s="2"/>
       <c r="DP27" s="2"/>
       <c r="DQ27" s="2"/>
-      <c r="DR27" s="17"/>
+      <c r="DR27" s="18"/>
       <c r="DS27" s="2"/>
       <c r="DT27" s="2"/>
       <c r="DU27" s="2"/>
       <c r="DV27" s="2"/>
-      <c r="DW27" s="10"/>
-      <c r="DX27" s="10"/>
+      <c r="DW27" s="14"/>
+      <c r="DX27" s="14"/>
       <c r="DY27" s="2"/>
-      <c r="DZ27" s="9"/>
-      <c r="EA27" s="9"/>
+      <c r="DZ27" s="11"/>
+      <c r="EA27" s="11"/>
       <c r="EB27" s="2"/>
-      <c r="EC27" s="10"/>
-      <c r="ED27" s="10"/>
+      <c r="EC27" s="14"/>
+      <c r="ED27" s="14"/>
       <c r="EE27" s="2"/>
       <c r="EF27" s="2"/>
       <c r="EG27" s="2"/>
       <c r="EH27" s="2"/>
       <c r="EW27" s="2"/>
       <c r="EX27" s="2"/>
-      <c r="FX27" s="12"/>
-      <c r="FY27" s="12"/>
-      <c r="GB27" s="13"/>
-      <c r="GC27" s="13"/>
-      <c r="GF27" s="13"/>
-      <c r="GG27" s="13"/>
-      <c r="GJ27" s="13"/>
-      <c r="GK27" s="13"/>
-      <c r="GP27" s="14"/>
-      <c r="GQ27" s="14"/>
-      <c r="GV27" s="18" t="n">
+      <c r="FV27" s="19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="FW27" s="20"/>
+      <c r="FX27" s="2"/>
+      <c r="FY27" s="2"/>
+      <c r="FZ27" s="4"/>
+      <c r="GA27" s="4"/>
+      <c r="GB27" s="4"/>
+      <c r="GC27" s="4"/>
+      <c r="GD27" s="4"/>
+      <c r="GE27" s="4"/>
+      <c r="GF27" s="4"/>
+      <c r="GG27" s="4"/>
+      <c r="GH27" s="4"/>
+      <c r="GI27" s="4"/>
+      <c r="GJ27" s="4"/>
+      <c r="GK27" s="4"/>
+      <c r="GL27" s="4"/>
+      <c r="GM27" s="4"/>
+      <c r="GN27" s="4"/>
+      <c r="GO27" s="4"/>
+      <c r="GP27" s="4"/>
+      <c r="GQ27" s="4"/>
+      <c r="GR27" s="4"/>
+      <c r="GS27" s="4"/>
+      <c r="GT27" s="4"/>
+      <c r="GU27" s="4"/>
+      <c r="GV27" s="2"/>
+      <c r="GW27" s="2"/>
+      <c r="GX27" s="2"/>
+      <c r="GY27" s="2"/>
+      <c r="GZ27" s="2"/>
+      <c r="HA27" s="2"/>
+      <c r="HB27" s="2"/>
+      <c r="HC27" s="2"/>
+      <c r="HD27" s="4"/>
+      <c r="HE27" s="4"/>
+      <c r="HF27" s="4"/>
+      <c r="HG27" s="4"/>
+      <c r="HH27" s="4"/>
+      <c r="HI27" s="4"/>
+      <c r="HJ27" s="4"/>
+      <c r="HK27" s="4"/>
+      <c r="HL27" s="4"/>
+      <c r="HM27" s="4"/>
+      <c r="HN27" s="4"/>
+      <c r="HO27" s="4"/>
+      <c r="HP27" s="4"/>
+      <c r="HQ27" s="4"/>
+      <c r="HR27" s="2"/>
+      <c r="HS27" s="2"/>
+      <c r="HV27" s="12" t="n">
         <v>2.5</v>
       </c>
-      <c r="GW27" s="18"/>
-      <c r="GX27" s="18"/>
-      <c r="GY27" s="18"/>
+      <c r="HW27" s="12"/>
+      <c r="HX27" s="12"/>
+      <c r="HY27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="2"/>
@@ -3152,8 +3441,8 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
@@ -3193,34 +3482,74 @@
       <c r="DT28" s="2"/>
       <c r="DU28" s="2"/>
       <c r="DV28" s="2"/>
-      <c r="DW28" s="10"/>
-      <c r="DX28" s="10"/>
+      <c r="DW28" s="14"/>
+      <c r="DX28" s="14"/>
       <c r="DY28" s="2"/>
-      <c r="DZ28" s="9"/>
-      <c r="EA28" s="9"/>
+      <c r="DZ28" s="11"/>
+      <c r="EA28" s="11"/>
       <c r="EB28" s="2"/>
-      <c r="EC28" s="10"/>
-      <c r="ED28" s="10"/>
+      <c r="EC28" s="14"/>
+      <c r="ED28" s="14"/>
       <c r="EE28" s="2"/>
       <c r="EF28" s="2"/>
       <c r="EG28" s="2"/>
       <c r="EH28" s="2"/>
       <c r="EW28" s="2"/>
       <c r="EX28" s="2"/>
-      <c r="FX28" s="12"/>
-      <c r="FY28" s="12"/>
-      <c r="GB28" s="13"/>
-      <c r="GC28" s="13"/>
-      <c r="GF28" s="13"/>
-      <c r="GG28" s="13"/>
-      <c r="GJ28" s="13"/>
-      <c r="GK28" s="13"/>
-      <c r="GP28" s="14"/>
-      <c r="GQ28" s="14"/>
-      <c r="GV28" s="18"/>
-      <c r="GW28" s="18"/>
-      <c r="GX28" s="18"/>
-      <c r="GY28" s="18"/>
+      <c r="FV28" s="20"/>
+      <c r="FW28" s="20"/>
+      <c r="FX28" s="2"/>
+      <c r="FY28" s="2"/>
+      <c r="FZ28" s="4"/>
+      <c r="GA28" s="4"/>
+      <c r="GB28" s="4"/>
+      <c r="GC28" s="4"/>
+      <c r="GD28" s="4"/>
+      <c r="GE28" s="4"/>
+      <c r="GF28" s="4"/>
+      <c r="GG28" s="4"/>
+      <c r="GH28" s="4"/>
+      <c r="GI28" s="4"/>
+      <c r="GJ28" s="4"/>
+      <c r="GK28" s="4"/>
+      <c r="GL28" s="4"/>
+      <c r="GM28" s="4"/>
+      <c r="GN28" s="4"/>
+      <c r="GO28" s="4"/>
+      <c r="GP28" s="4"/>
+      <c r="GQ28" s="4"/>
+      <c r="GR28" s="4"/>
+      <c r="GS28" s="4"/>
+      <c r="GT28" s="4"/>
+      <c r="GU28" s="4"/>
+      <c r="GV28" s="2"/>
+      <c r="GW28" s="2"/>
+      <c r="GX28" s="2"/>
+      <c r="GY28" s="2"/>
+      <c r="GZ28" s="2"/>
+      <c r="HA28" s="2"/>
+      <c r="HB28" s="2"/>
+      <c r="HC28" s="2"/>
+      <c r="HD28" s="4"/>
+      <c r="HE28" s="4"/>
+      <c r="HF28" s="4"/>
+      <c r="HG28" s="4"/>
+      <c r="HH28" s="4"/>
+      <c r="HI28" s="4"/>
+      <c r="HJ28" s="4"/>
+      <c r="HK28" s="4"/>
+      <c r="HL28" s="4"/>
+      <c r="HM28" s="4"/>
+      <c r="HN28" s="4"/>
+      <c r="HO28" s="4"/>
+      <c r="HP28" s="4"/>
+      <c r="HQ28" s="4"/>
+      <c r="HR28" s="2"/>
+      <c r="HS28" s="2"/>
+      <c r="HV28" s="12"/>
+      <c r="HW28" s="12"/>
+      <c r="HX28" s="12"/>
+      <c r="HY28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="2"/>
@@ -3253,8 +3582,8 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
@@ -3293,34 +3622,34 @@
       <c r="DP29" s="2"/>
       <c r="DQ29" s="2"/>
       <c r="DR29" s="2"/>
-      <c r="DS29" s="10"/>
-      <c r="DT29" s="10"/>
+      <c r="DS29" s="14"/>
+      <c r="DT29" s="14"/>
       <c r="DU29" s="2"/>
       <c r="DV29" s="2"/>
-      <c r="DW29" s="10"/>
-      <c r="DX29" s="10"/>
+      <c r="DW29" s="14"/>
+      <c r="DX29" s="14"/>
       <c r="DY29" s="2"/>
-      <c r="DZ29" s="9"/>
-      <c r="EA29" s="9"/>
+      <c r="DZ29" s="11"/>
+      <c r="EA29" s="11"/>
       <c r="EB29" s="2"/>
-      <c r="EC29" s="10"/>
-      <c r="ED29" s="10"/>
+      <c r="EC29" s="14"/>
+      <c r="ED29" s="14"/>
       <c r="EE29" s="2"/>
       <c r="EF29" s="2"/>
-      <c r="EG29" s="10"/>
-      <c r="EH29" s="10"/>
+      <c r="EG29" s="14"/>
+      <c r="EH29" s="14"/>
       <c r="EW29" s="2"/>
       <c r="EX29" s="2"/>
       <c r="FJ29" s="2"/>
       <c r="FK29" s="2"/>
-      <c r="FL29" s="14" t="s">
-        <v>1</v>
+      <c r="FL29" s="13" t="s">
+        <v>2</v>
       </c>
-      <c r="FM29" s="14"/>
-      <c r="FN29" s="10" t="n">
+      <c r="FM29" s="13"/>
+      <c r="FN29" s="14" t="n">
         <v>2.4</v>
       </c>
-      <c r="FO29" s="10"/>
+      <c r="FO29" s="14"/>
       <c r="FP29" s="2"/>
       <c r="FQ29" s="2"/>
       <c r="FR29" s="2"/>
@@ -3329,12 +3658,12 @@
       <c r="FU29" s="4"/>
       <c r="FV29" s="4"/>
       <c r="FW29" s="4"/>
-      <c r="FX29" s="4"/>
-      <c r="FY29" s="4"/>
-      <c r="FZ29" s="4"/>
-      <c r="GA29" s="4"/>
-      <c r="GB29" s="4"/>
-      <c r="GC29" s="4"/>
+      <c r="FX29" s="2"/>
+      <c r="FY29" s="2"/>
+      <c r="FZ29" s="20"/>
+      <c r="GA29" s="20"/>
+      <c r="GB29" s="2"/>
+      <c r="GC29" s="2"/>
       <c r="GD29" s="4"/>
       <c r="GE29" s="4"/>
       <c r="GF29" s="4"/>
@@ -3359,26 +3688,26 @@
       <c r="GY29" s="4"/>
       <c r="GZ29" s="4"/>
       <c r="HA29" s="4"/>
-      <c r="HB29" s="4"/>
-      <c r="HC29" s="4"/>
-      <c r="HD29" s="4"/>
-      <c r="HE29" s="4"/>
-      <c r="HF29" s="19"/>
-      <c r="HG29" s="19"/>
+      <c r="HB29" s="8"/>
+      <c r="HC29" s="8"/>
+      <c r="HD29" s="2"/>
+      <c r="HE29" s="2"/>
+      <c r="HF29" s="2"/>
+      <c r="HG29" s="2"/>
       <c r="HH29" s="4"/>
       <c r="HI29" s="4"/>
-      <c r="HJ29" s="19"/>
-      <c r="HK29" s="19"/>
+      <c r="HJ29" s="4"/>
+      <c r="HK29" s="4"/>
       <c r="HL29" s="4"/>
       <c r="HM29" s="4"/>
-      <c r="HN29" s="19"/>
-      <c r="HO29" s="19"/>
+      <c r="HN29" s="4"/>
+      <c r="HO29" s="4"/>
       <c r="HP29" s="4"/>
       <c r="HQ29" s="4"/>
-      <c r="HR29" s="19"/>
-      <c r="HS29" s="19"/>
-      <c r="HT29" s="19"/>
-      <c r="HU29" s="19"/>
+      <c r="HR29" s="4"/>
+      <c r="HS29" s="4"/>
+      <c r="HT29" s="4"/>
+      <c r="HU29" s="4"/>
       <c r="HV29" s="4"/>
       <c r="HW29" s="4"/>
       <c r="HX29" s="4"/>
@@ -3407,8 +3736,8 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -3428,8 +3757,8 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
@@ -3448,7 +3777,7 @@
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
-      <c r="BA30" s="21"/>
+      <c r="BA30" s="17"/>
       <c r="CC30" s="22"/>
       <c r="CI30" s="4"/>
       <c r="CW30" s="3"/>
@@ -3467,30 +3796,30 @@
       <c r="DP30" s="2"/>
       <c r="DQ30" s="2"/>
       <c r="DR30" s="2"/>
-      <c r="DS30" s="10"/>
-      <c r="DT30" s="10"/>
+      <c r="DS30" s="14"/>
+      <c r="DT30" s="14"/>
       <c r="DU30" s="2"/>
       <c r="DV30" s="2"/>
-      <c r="DW30" s="10"/>
-      <c r="DX30" s="10"/>
+      <c r="DW30" s="14"/>
+      <c r="DX30" s="14"/>
       <c r="DY30" s="2"/>
       <c r="DZ30" s="24"/>
       <c r="EA30" s="24"/>
       <c r="EB30" s="2"/>
-      <c r="EC30" s="10"/>
-      <c r="ED30" s="10"/>
+      <c r="EC30" s="14"/>
+      <c r="ED30" s="14"/>
       <c r="EE30" s="2"/>
       <c r="EF30" s="2"/>
-      <c r="EG30" s="10"/>
-      <c r="EH30" s="10"/>
+      <c r="EG30" s="14"/>
+      <c r="EH30" s="14"/>
       <c r="EW30" s="2"/>
       <c r="EX30" s="2"/>
       <c r="FJ30" s="2"/>
       <c r="FK30" s="2"/>
-      <c r="FL30" s="14"/>
-      <c r="FM30" s="14"/>
-      <c r="FN30" s="10"/>
-      <c r="FO30" s="10"/>
+      <c r="FL30" s="13"/>
+      <c r="FM30" s="13"/>
+      <c r="FN30" s="14"/>
+      <c r="FO30" s="14"/>
       <c r="FP30" s="2"/>
       <c r="FQ30" s="2"/>
       <c r="FR30" s="2"/>
@@ -3499,12 +3828,12 @@
       <c r="FU30" s="4"/>
       <c r="FV30" s="4"/>
       <c r="FW30" s="4"/>
-      <c r="FX30" s="4"/>
-      <c r="FY30" s="4"/>
-      <c r="FZ30" s="4"/>
-      <c r="GA30" s="4"/>
-      <c r="GB30" s="4"/>
-      <c r="GC30" s="4"/>
+      <c r="FX30" s="2"/>
+      <c r="FY30" s="2"/>
+      <c r="FZ30" s="20"/>
+      <c r="GA30" s="20"/>
+      <c r="GB30" s="2"/>
+      <c r="GC30" s="2"/>
       <c r="GD30" s="4"/>
       <c r="GE30" s="4"/>
       <c r="GF30" s="4"/>
@@ -3529,12 +3858,12 @@
       <c r="GY30" s="4"/>
       <c r="GZ30" s="4"/>
       <c r="HA30" s="4"/>
-      <c r="HB30" s="4"/>
-      <c r="HC30" s="4"/>
-      <c r="HD30" s="4"/>
-      <c r="HE30" s="4"/>
-      <c r="HF30" s="4"/>
-      <c r="HG30" s="4"/>
+      <c r="HB30" s="8"/>
+      <c r="HC30" s="8"/>
+      <c r="HD30" s="2"/>
+      <c r="HE30" s="2"/>
+      <c r="HF30" s="2"/>
+      <c r="HG30" s="2"/>
       <c r="HH30" s="4"/>
       <c r="HI30" s="4"/>
       <c r="HJ30" s="4"/>
@@ -3581,12 +3910,12 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="14" t="s">
-        <v>2</v>
+      <c r="P31" s="13" t="s">
+        <v>3</v>
       </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -3600,14 +3929,14 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
@@ -3643,8 +3972,8 @@
       <c r="DP31" s="2"/>
       <c r="DQ31" s="2"/>
       <c r="DR31" s="2"/>
-      <c r="DS31" s="10"/>
-      <c r="DT31" s="10"/>
+      <c r="DS31" s="14"/>
+      <c r="DT31" s="14"/>
       <c r="DU31" s="2"/>
       <c r="DV31" s="2"/>
       <c r="DW31" s="25" t="n">
@@ -3659,16 +3988,16 @@
       <c r="ED31" s="26"/>
       <c r="EE31" s="2"/>
       <c r="EF31" s="2"/>
-      <c r="EG31" s="10"/>
-      <c r="EH31" s="10"/>
+      <c r="EG31" s="14"/>
+      <c r="EH31" s="14"/>
       <c r="EW31" s="2"/>
       <c r="EX31" s="2"/>
       <c r="FJ31" s="2"/>
       <c r="FK31" s="2"/>
-      <c r="FL31" s="14"/>
-      <c r="FM31" s="14"/>
-      <c r="FN31" s="10"/>
-      <c r="FO31" s="10"/>
+      <c r="FL31" s="13"/>
+      <c r="FM31" s="13"/>
+      <c r="FN31" s="14"/>
+      <c r="FO31" s="14"/>
       <c r="FP31" s="2"/>
       <c r="FQ31" s="2"/>
       <c r="FR31" s="2"/>
@@ -3681,12 +4010,12 @@
       <c r="FY31" s="4"/>
       <c r="FZ31" s="4"/>
       <c r="GA31" s="4"/>
-      <c r="GB31" s="4"/>
-      <c r="GC31" s="4"/>
-      <c r="GD31" s="4"/>
-      <c r="GE31" s="4"/>
-      <c r="GF31" s="4"/>
-      <c r="GG31" s="4"/>
+      <c r="GB31" s="2"/>
+      <c r="GC31" s="2"/>
+      <c r="GD31" s="8"/>
+      <c r="GE31" s="8"/>
+      <c r="GF31" s="2"/>
+      <c r="GG31" s="2"/>
       <c r="GH31" s="4"/>
       <c r="GI31" s="4"/>
       <c r="GJ31" s="4"/>
@@ -3711,8 +4040,8 @@
       <c r="HC31" s="4"/>
       <c r="HD31" s="4"/>
       <c r="HE31" s="4"/>
-      <c r="HF31" s="4"/>
-      <c r="HG31" s="4"/>
+      <c r="HF31" s="2"/>
+      <c r="HG31" s="2"/>
       <c r="HH31" s="4"/>
       <c r="HI31" s="4"/>
       <c r="HJ31" s="4"/>
@@ -3759,10 +4088,10 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -3776,14 +4105,14 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
@@ -3818,8 +4147,8 @@
       <c r="DP32" s="2"/>
       <c r="DQ32" s="2"/>
       <c r="DR32" s="2"/>
-      <c r="DS32" s="10"/>
-      <c r="DT32" s="10"/>
+      <c r="DS32" s="14"/>
+      <c r="DT32" s="14"/>
       <c r="DU32" s="2"/>
       <c r="DV32" s="25"/>
       <c r="DW32" s="25"/>
@@ -3832,16 +4161,16 @@
       <c r="ED32" s="26"/>
       <c r="EE32" s="25"/>
       <c r="EF32" s="2"/>
-      <c r="EG32" s="10"/>
-      <c r="EH32" s="10"/>
+      <c r="EG32" s="14"/>
+      <c r="EH32" s="14"/>
       <c r="EW32" s="2"/>
       <c r="EX32" s="2"/>
       <c r="FJ32" s="2"/>
       <c r="FK32" s="2"/>
-      <c r="FL32" s="14"/>
-      <c r="FM32" s="14"/>
-      <c r="FN32" s="10"/>
-      <c r="FO32" s="10"/>
+      <c r="FL32" s="13"/>
+      <c r="FM32" s="13"/>
+      <c r="FN32" s="14"/>
+      <c r="FO32" s="14"/>
       <c r="FP32" s="2"/>
       <c r="FQ32" s="2"/>
       <c r="FR32" s="2"/>
@@ -3854,12 +4183,12 @@
       <c r="FY32" s="4"/>
       <c r="FZ32" s="4"/>
       <c r="GA32" s="4"/>
-      <c r="GB32" s="4"/>
-      <c r="GC32" s="4"/>
-      <c r="GD32" s="4"/>
-      <c r="GE32" s="4"/>
-      <c r="GF32" s="4"/>
-      <c r="GG32" s="4"/>
+      <c r="GB32" s="2"/>
+      <c r="GC32" s="2"/>
+      <c r="GD32" s="8"/>
+      <c r="GE32" s="8"/>
+      <c r="GF32" s="2"/>
+      <c r="GG32" s="2"/>
       <c r="GH32" s="4"/>
       <c r="GI32" s="4"/>
       <c r="GJ32" s="4"/>
@@ -3884,8 +4213,8 @@
       <c r="HC32" s="4"/>
       <c r="HD32" s="4"/>
       <c r="HE32" s="4"/>
-      <c r="HF32" s="4"/>
-      <c r="HG32" s="4"/>
+      <c r="HF32" s="2"/>
+      <c r="HG32" s="2"/>
       <c r="HH32" s="4"/>
       <c r="HI32" s="4"/>
       <c r="HJ32" s="4"/>
@@ -3932,10 +4261,10 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -3949,8 +4278,8 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -3993,8 +4322,8 @@
       <c r="DP33" s="2"/>
       <c r="DQ33" s="2"/>
       <c r="DR33" s="2"/>
-      <c r="DS33" s="10"/>
-      <c r="DT33" s="10"/>
+      <c r="DS33" s="14"/>
+      <c r="DT33" s="14"/>
       <c r="DU33" s="25"/>
       <c r="DV33" s="25"/>
       <c r="DW33" s="25"/>
@@ -4007,8 +4336,8 @@
       <c r="ED33" s="25"/>
       <c r="EE33" s="26"/>
       <c r="EF33" s="26"/>
-      <c r="EG33" s="10"/>
-      <c r="EH33" s="10"/>
+      <c r="EG33" s="14"/>
+      <c r="EH33" s="14"/>
       <c r="ER33" s="4"/>
       <c r="ES33" s="4"/>
       <c r="ET33" s="4"/>
@@ -4027,10 +4356,10 @@
       <c r="FE33" s="2"/>
       <c r="FF33" s="28"/>
       <c r="FG33" s="28"/>
-      <c r="FL33" s="14"/>
-      <c r="FM33" s="14"/>
-      <c r="FN33" s="10"/>
-      <c r="FO33" s="10"/>
+      <c r="FL33" s="13"/>
+      <c r="FM33" s="13"/>
+      <c r="FN33" s="14"/>
+      <c r="FO33" s="14"/>
       <c r="FT33" s="4"/>
       <c r="FU33" s="4"/>
       <c r="FV33" s="4"/>
@@ -4043,34 +4372,34 @@
       <c r="GC33" s="4"/>
       <c r="GD33" s="4"/>
       <c r="GE33" s="4"/>
-      <c r="GF33" s="4"/>
-      <c r="GG33" s="4"/>
-      <c r="GH33" s="4"/>
-      <c r="GI33" s="4"/>
-      <c r="GJ33" s="4"/>
-      <c r="GK33" s="4"/>
-      <c r="GL33" s="4"/>
-      <c r="GM33" s="4"/>
-      <c r="GN33" s="4"/>
-      <c r="GO33" s="4"/>
-      <c r="GP33" s="4"/>
-      <c r="GQ33" s="4"/>
-      <c r="GR33" s="4"/>
-      <c r="GS33" s="4"/>
-      <c r="GT33" s="4"/>
-      <c r="GU33" s="4"/>
-      <c r="GV33" s="4"/>
-      <c r="GW33" s="4"/>
-      <c r="GX33" s="4"/>
-      <c r="GY33" s="4"/>
-      <c r="GZ33" s="4"/>
-      <c r="HA33" s="4"/>
+      <c r="GF33" s="2"/>
+      <c r="GG33" s="2"/>
+      <c r="GH33" s="8"/>
+      <c r="GI33" s="8"/>
+      <c r="GJ33" s="2"/>
+      <c r="GK33" s="2"/>
+      <c r="GL33" s="2"/>
+      <c r="GM33" s="2"/>
+      <c r="GN33" s="2"/>
+      <c r="GO33" s="2"/>
+      <c r="GP33" s="2"/>
+      <c r="GQ33" s="2"/>
+      <c r="GR33" s="2"/>
+      <c r="GS33" s="2"/>
+      <c r="GT33" s="2"/>
+      <c r="GU33" s="2"/>
+      <c r="GV33" s="2"/>
+      <c r="GW33" s="8"/>
+      <c r="GX33" s="8"/>
+      <c r="GY33" s="2"/>
+      <c r="GZ33" s="2"/>
+      <c r="HA33" s="2"/>
       <c r="HB33" s="4"/>
       <c r="HC33" s="4"/>
       <c r="HD33" s="4"/>
       <c r="HE33" s="4"/>
-      <c r="HF33" s="4"/>
-      <c r="HG33" s="4"/>
+      <c r="HF33" s="2"/>
+      <c r="HG33" s="2"/>
       <c r="HH33" s="4"/>
       <c r="HI33" s="4"/>
       <c r="HJ33" s="4"/>
@@ -4118,10 +4447,10 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -4135,8 +4464,8 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
@@ -4177,7 +4506,7 @@
       <c r="DP34" s="2"/>
       <c r="DQ34" s="2"/>
       <c r="DR34" s="2"/>
-      <c r="DS34" s="10"/>
+      <c r="DS34" s="14"/>
       <c r="DT34" s="25"/>
       <c r="DU34" s="25"/>
       <c r="DV34" s="25"/>
@@ -4192,7 +4521,7 @@
       <c r="EE34" s="26"/>
       <c r="EF34" s="26"/>
       <c r="EG34" s="25"/>
-      <c r="EH34" s="10"/>
+      <c r="EH34" s="14"/>
       <c r="ER34" s="4"/>
       <c r="ES34" s="4"/>
       <c r="ET34" s="4"/>
@@ -4209,10 +4538,10 @@
       <c r="FE34" s="2"/>
       <c r="FF34" s="28"/>
       <c r="FG34" s="28"/>
-      <c r="FL34" s="14"/>
-      <c r="FM34" s="14"/>
-      <c r="FN34" s="10"/>
-      <c r="FO34" s="10"/>
+      <c r="FL34" s="13"/>
+      <c r="FM34" s="13"/>
+      <c r="FN34" s="14"/>
+      <c r="FO34" s="14"/>
       <c r="FT34" s="4"/>
       <c r="FU34" s="4"/>
       <c r="FV34" s="4"/>
@@ -4225,34 +4554,34 @@
       <c r="GC34" s="4"/>
       <c r="GD34" s="4"/>
       <c r="GE34" s="4"/>
-      <c r="GF34" s="4"/>
-      <c r="GG34" s="4"/>
-      <c r="GH34" s="4"/>
-      <c r="GI34" s="4"/>
-      <c r="GJ34" s="4"/>
-      <c r="GK34" s="4"/>
-      <c r="GL34" s="4"/>
-      <c r="GM34" s="4"/>
-      <c r="GN34" s="4"/>
-      <c r="GO34" s="4"/>
-      <c r="GP34" s="4"/>
-      <c r="GQ34" s="4"/>
-      <c r="GR34" s="4"/>
-      <c r="GS34" s="4"/>
-      <c r="GT34" s="4"/>
-      <c r="GU34" s="4"/>
-      <c r="GV34" s="4"/>
-      <c r="GW34" s="4"/>
-      <c r="GX34" s="4"/>
-      <c r="GY34" s="4"/>
-      <c r="GZ34" s="4"/>
-      <c r="HA34" s="4"/>
+      <c r="GF34" s="2"/>
+      <c r="GG34" s="2"/>
+      <c r="GH34" s="8"/>
+      <c r="GI34" s="8"/>
+      <c r="GJ34" s="2"/>
+      <c r="GK34" s="2"/>
+      <c r="GL34" s="2"/>
+      <c r="GM34" s="2"/>
+      <c r="GN34" s="2"/>
+      <c r="GO34" s="2"/>
+      <c r="GP34" s="2"/>
+      <c r="GQ34" s="2"/>
+      <c r="GR34" s="2"/>
+      <c r="GS34" s="2"/>
+      <c r="GT34" s="2"/>
+      <c r="GU34" s="2"/>
+      <c r="GV34" s="2"/>
+      <c r="GW34" s="8"/>
+      <c r="GX34" s="8"/>
+      <c r="GY34" s="2"/>
+      <c r="GZ34" s="2"/>
+      <c r="HA34" s="2"/>
       <c r="HB34" s="4"/>
       <c r="HC34" s="4"/>
       <c r="HD34" s="4"/>
       <c r="HE34" s="4"/>
-      <c r="HF34" s="4"/>
-      <c r="HG34" s="4"/>
+      <c r="HF34" s="2"/>
+      <c r="HG34" s="2"/>
       <c r="HH34" s="4"/>
       <c r="HI34" s="4"/>
       <c r="HJ34" s="4"/>
@@ -4302,8 +4631,8 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="2"/>
@@ -4319,8 +4648,8 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
@@ -4339,14 +4668,14 @@
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
       <c r="AZ35" s="2"/>
-      <c r="BC35" s="10" t="n">
+      <c r="BC35" s="14" t="n">
         <v>2.2</v>
       </c>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
-      <c r="BF35" s="10"/>
-      <c r="BG35" s="10"/>
-      <c r="BH35" s="10"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="14"/>
+      <c r="BG35" s="14"/>
+      <c r="BH35" s="14"/>
       <c r="BM35" s="4"/>
       <c r="BN35" s="4"/>
       <c r="BQ35" s="4"/>
@@ -4453,28 +4782,28 @@
       <c r="GI35" s="4"/>
       <c r="GJ35" s="4"/>
       <c r="GK35" s="4"/>
-      <c r="GL35" s="4"/>
-      <c r="GM35" s="4"/>
-      <c r="GN35" s="4"/>
-      <c r="GO35" s="4"/>
-      <c r="GP35" s="4"/>
-      <c r="GQ35" s="4"/>
-      <c r="GR35" s="4"/>
-      <c r="GS35" s="4"/>
-      <c r="GT35" s="4"/>
-      <c r="GU35" s="4"/>
+      <c r="GL35" s="2"/>
+      <c r="GM35" s="2"/>
+      <c r="GN35" s="2"/>
+      <c r="GO35" s="2"/>
+      <c r="GP35" s="2"/>
+      <c r="GQ35" s="2"/>
+      <c r="GR35" s="2"/>
+      <c r="GS35" s="2"/>
+      <c r="GT35" s="2"/>
+      <c r="GU35" s="2"/>
       <c r="GV35" s="4"/>
       <c r="GW35" s="4"/>
       <c r="GX35" s="4"/>
       <c r="GY35" s="4"/>
-      <c r="GZ35" s="4"/>
-      <c r="HA35" s="4"/>
-      <c r="HB35" s="4"/>
-      <c r="HC35" s="4"/>
-      <c r="HD35" s="4"/>
-      <c r="HE35" s="4"/>
-      <c r="HF35" s="4"/>
-      <c r="HG35" s="4"/>
+      <c r="GZ35" s="2"/>
+      <c r="HA35" s="2"/>
+      <c r="HB35" s="2"/>
+      <c r="HC35" s="2"/>
+      <c r="HD35" s="2"/>
+      <c r="HE35" s="2"/>
+      <c r="HF35" s="2"/>
+      <c r="HG35" s="2"/>
       <c r="HH35" s="4"/>
       <c r="HI35" s="4"/>
       <c r="HJ35" s="4"/>
@@ -4522,8 +4851,8 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="2"/>
@@ -4539,8 +4868,8 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
@@ -4559,12 +4888,12 @@
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
       <c r="AZ36" s="2"/>
-      <c r="BC36" s="10"/>
-      <c r="BD36" s="10"/>
-      <c r="BE36" s="10"/>
-      <c r="BF36" s="10"/>
-      <c r="BG36" s="10"/>
-      <c r="BH36" s="10"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="14"/>
+      <c r="BH36" s="14"/>
       <c r="BM36" s="4"/>
       <c r="BN36" s="4"/>
       <c r="BQ36" s="4"/>
@@ -4672,28 +5001,28 @@
       <c r="GI36" s="4"/>
       <c r="GJ36" s="4"/>
       <c r="GK36" s="4"/>
-      <c r="GL36" s="4"/>
-      <c r="GM36" s="4"/>
-      <c r="GN36" s="4"/>
-      <c r="GO36" s="4"/>
-      <c r="GP36" s="4"/>
-      <c r="GQ36" s="4"/>
-      <c r="GR36" s="4"/>
-      <c r="GS36" s="4"/>
-      <c r="GT36" s="4"/>
-      <c r="GU36" s="4"/>
+      <c r="GL36" s="2"/>
+      <c r="GM36" s="2"/>
+      <c r="GN36" s="2"/>
+      <c r="GO36" s="2"/>
+      <c r="GP36" s="2"/>
+      <c r="GQ36" s="2"/>
+      <c r="GR36" s="2"/>
+      <c r="GS36" s="2"/>
+      <c r="GT36" s="2"/>
+      <c r="GU36" s="2"/>
       <c r="GV36" s="4"/>
       <c r="GW36" s="4"/>
       <c r="GX36" s="4"/>
       <c r="GY36" s="4"/>
-      <c r="GZ36" s="4"/>
-      <c r="HA36" s="4"/>
-      <c r="HB36" s="4"/>
-      <c r="HC36" s="4"/>
-      <c r="HD36" s="4"/>
-      <c r="HE36" s="4"/>
-      <c r="HF36" s="4"/>
-      <c r="HG36" s="4"/>
+      <c r="GZ36" s="2"/>
+      <c r="HA36" s="2"/>
+      <c r="HB36" s="2"/>
+      <c r="HC36" s="2"/>
+      <c r="HD36" s="2"/>
+      <c r="HE36" s="2"/>
+      <c r="HF36" s="2"/>
+      <c r="HG36" s="2"/>
       <c r="HH36" s="4"/>
       <c r="HI36" s="4"/>
       <c r="HJ36" s="4"/>
@@ -4753,22 +5082,22 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="15" t="n">
+      <c r="AA37" s="16" t="n">
         <v>3.1</v>
       </c>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -4924,12 +5253,12 @@
       <c r="GK37" s="4"/>
       <c r="GL37" s="4"/>
       <c r="GM37" s="4"/>
-      <c r="GN37" s="4"/>
-      <c r="GO37" s="4"/>
+      <c r="GN37" s="15"/>
+      <c r="GO37" s="15"/>
       <c r="GP37" s="4"/>
       <c r="GQ37" s="4"/>
-      <c r="GR37" s="4"/>
-      <c r="GS37" s="4"/>
+      <c r="GR37" s="15"/>
+      <c r="GS37" s="15"/>
       <c r="GT37" s="4"/>
       <c r="GU37" s="4"/>
       <c r="GV37" s="4"/>
@@ -5015,8 +5344,8 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="15"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
@@ -5282,7 +5611,7 @@
         <v>1.1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5389,10 +5718,10 @@
     <row r="42" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="30"/>
       <c r="C42" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -5446,10 +5775,10 @@
     <row r="43" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="30"/>
       <c r="C43" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -5503,10 +5832,10 @@
     <row r="44" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="30"/>
       <c r="C44" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -5563,7 +5892,7 @@
         <v>2.2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -5620,7 +5949,7 @@
         <v>2.3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5677,7 +6006,7 @@
         <v>2.4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5734,7 +6063,7 @@
         <v>2.5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5791,7 +6120,7 @@
         <v>2.6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5848,7 +6177,7 @@
         <v>2.7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -6011,7 +6340,7 @@
         <v>3.1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,7 +6349,7 @@
         <v>3.2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,7 +6358,7 @@
         <v>3.3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6367,16 @@
         <v>3.4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="30"/>
+      <c r="C57" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6059,7 +6397,7 @@
   </sheetPr>
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AM26" activeCellId="0" sqref="AM26"/>
     </sheetView>
   </sheetViews>
@@ -6914,7 +7252,7 @@
   </sheetPr>
   <dimension ref="D5:BB54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BI21" activeCellId="0" sqref="BI21"/>
     </sheetView>
   </sheetViews>
@@ -9533,7 +9871,7 @@
   </sheetPr>
   <dimension ref="B3:AZ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF11" activeCellId="0" sqref="AF11"/>
     </sheetView>
   </sheetViews>
